--- a/data/quantization.xlsx
+++ b/data/quantization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>top1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>16-bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,17 +252,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -531,38 +550,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="5" max="7" width="12.9140625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="5" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -577,16 +600,22 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -613,9 +642,17 @@
       <c r="I3" s="1">
         <v>87.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="J3" s="6">
+        <f>H3-C3</f>
+        <v>-1.519999999999996</v>
+      </c>
+      <c r="K3" s="6">
+        <f>I3-D3</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -640,9 +677,17 @@
       <c r="I4" s="1">
         <v>76.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:K14" si="0">H4-C4</f>
+        <v>-0.87999999999999545</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.0600000000000023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -661,15 +706,23 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>67.84</v>
       </c>
       <c r="I5" s="1">
         <v>88.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.25999999999999091</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -694,9 +747,17 @@
       <c r="I6" s="1">
         <v>88.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.37999999999999545</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.9999999999992042E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -721,9 +782,17 @@
       <c r="I7" s="1">
         <v>70.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>-22.549999999999997</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>-17.709999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,9 +817,17 @@
       <c r="I8" s="1">
         <v>81.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.2399999999999949</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.539999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,9 +852,17 @@
       <c r="I9" s="1">
         <v>84.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>-10.299999999999997</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -802,9 +887,17 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>-13.619999999999997</v>
+      </c>
+      <c r="K10" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -829,9 +922,17 @@
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.2199999999999989</v>
+      </c>
+      <c r="K11" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -858,9 +959,17 @@
       <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="J12" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -885,9 +994,17 @@
       <c r="I13" s="1">
         <v>80.239999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -912,9 +1029,18 @@
       <c r="I14" s="1">
         <v>79.7</v>
       </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.56999999999999318</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A14"/>

--- a/data/quantization.xlsx
+++ b/data/quantization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>top1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,124 @@
   </si>
   <si>
     <t>top5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8x8 VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8x8 CaffeNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16x16 VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6x6 VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2xfp32 ResNet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x1 AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x4 AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x32 AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x32 AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8x8 VGG16 (FT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6x6 VGG16 (FT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+16x16
+VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+8x8
+CaffeNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+8x8
+VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+8x8
+VGG16 (FT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6x6
+VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6x6
+VGG16 (FT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4x32
+AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2xfp32
+ResNet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2x32
+AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1x4
+AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1x1
+AlexNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,8 +370,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,6 +391,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -285,6 +409,1958 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16x16 VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8x8 CaffeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8x8 VGG16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8x8 VGG16 (FT)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6x6 VGG16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6x6 VGG16 (FT)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x32 AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2xfp32 ResNet18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2x32 AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1x4 AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1x1 AlexNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.25999999999999091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999980105E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.28000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.619999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88DD-4EDA-A623-3CBF622E95A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1296884207"/>
+        <c:axId val="1296885871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1296884207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296885871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1296885871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296884207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$18:$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>
+16x16
+VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>
+8x8
+CaffeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>
+8x8
+VGG16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>
+8x8
+VGG16 (FT)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>
+6x6
+VGG16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>
+6x6
+VGG16 (FT)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>
+4x32
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>
+2xfp32
+ResNet18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>
+2x32
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>
+1x4
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>
+1x1
+AlexNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$18:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.25999999999999091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999980105E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.28000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.619999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D890-4867-B895-91092C172433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$18:$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>
+16x16
+VGG16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>
+8x8
+CaffeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>
+8x8
+VGG16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>
+8x8
+VGG16 (FT)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>
+6x6
+VGG16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>
+6x6
+VGG16 (FT)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>
+4x32
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>
+2xfp32
+ResNet18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>
+2x32
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>
+1x4
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>
+1x1
+AlexNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$18:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000003411E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9999999999992042E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.539999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000001137E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56999999999999318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D890-4867-B895-91092C172433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1293129103"/>
+        <c:axId val="1293132015"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1293129103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293132015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1293132015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293129103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,40 +2626,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K31" sqref="K30:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="5" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -600,22 +2676,22 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -642,17 +2718,17 @@
       <c r="I3" s="1">
         <v>87.6</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <f>H3-C3</f>
         <v>-1.519999999999996</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <f>I3-D3</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -677,17 +2753,17 @@
       <c r="I4" s="1">
         <v>76.64</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <f t="shared" ref="J4:K14" si="0">H4-C4</f>
         <v>-0.87999999999999545</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>-1.0600000000000023</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -706,23 +2782,23 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>67.84</v>
       </c>
       <c r="I5" s="1">
         <v>88.19</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>-0.25999999999999091</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>9.0000000000003411E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -747,17 +2823,17 @@
       <c r="I6" s="1">
         <v>88.06</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>-0.37999999999999545</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>-3.9999999999992042E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,17 +2858,17 @@
       <c r="I7" s="1">
         <v>70.39</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>-22.549999999999997</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>-17.709999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -817,17 +2893,17 @@
       <c r="I8" s="1">
         <v>81.56</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>-9.2399999999999949</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>-6.539999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -852,17 +2928,17 @@
       <c r="I9" s="1">
         <v>84.2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>-10.299999999999997</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>-3.2000000000000028</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -887,17 +2963,17 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>-13.619999999999997</v>
       </c>
-      <c r="K10" s="6" t="e">
+      <c r="K10" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -922,17 +2998,17 @@
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <f t="shared" si="0"/>
         <v>-4.2199999999999989</v>
       </c>
-      <c r="K11" s="6" t="e">
+      <c r="K11" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -959,17 +3035,17 @@
       <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="6" t="e">
+      <c r="J12" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="6" t="e">
+      <c r="K12" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -994,17 +3070,17 @@
       <c r="I13" s="1">
         <v>80.239999999999995</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <f t="shared" si="0"/>
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <f t="shared" si="0"/>
         <v>-3.0000000000001137E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1029,13 +3105,315 @@
       <c r="I14" s="1">
         <v>79.7</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="7">
         <f t="shared" si="0"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <f t="shared" si="0"/>
         <v>-0.56999999999999318</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>-0.25999999999999091</v>
+      </c>
+      <c r="D18">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="E18">
+        <f>-C18</f>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="F18">
+        <f>-D18</f>
+        <v>-9.0000000000003411E-2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="J18">
+        <v>-9.0000000000003411E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>-0.87999999999999545</v>
+      </c>
+      <c r="D19">
+        <v>-1.0600000000000023</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E28" si="1">-C19</f>
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F28" si="2">-D19</f>
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19">
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="J19">
+        <v>1.0600000000000023</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>-1.519999999999996</v>
+      </c>
+      <c r="D20">
+        <v>-0.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.519999999999996</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>1.519999999999996</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>-0.37999999999999545</v>
+      </c>
+      <c r="D21">
+        <v>-3.9999999999992042E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="J21">
+        <v>3.9999999999992042E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>-22.549999999999997</v>
+      </c>
+      <c r="D22">
+        <v>-17.709999999999994</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>22.549999999999997</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>17.709999999999994</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22">
+        <v>22.549999999999997</v>
+      </c>
+      <c r="J22">
+        <v>17.709999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>-9.2399999999999949</v>
+      </c>
+      <c r="D23">
+        <v>-6.539999999999992</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>9.2399999999999949</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>6.539999999999992</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23">
+        <v>9.2399999999999949</v>
+      </c>
+      <c r="J23">
+        <v>6.539999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="D24">
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="J24">
+        <v>3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>-10.299999999999997</v>
+      </c>
+      <c r="D25">
+        <v>-3.2000000000000028</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25">
+        <v>10.299999999999997</v>
+      </c>
+      <c r="J25">
+        <v>3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D26">
+        <v>-0.56999999999999318</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-0.28000000000000114</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26">
+        <v>-0.28000000000000114</v>
+      </c>
+      <c r="J26">
+        <v>0.56999999999999318</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>-4.2199999999999989</v>
+      </c>
+      <c r="D27" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>4.2199999999999989</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>4.2199999999999989</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>-13.619999999999997</v>
+      </c>
+      <c r="D28" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>13.619999999999997</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28">
+        <v>13.619999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1051,5 +3429,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/quantization.xlsx
+++ b/data/quantization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>top1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,18 +381,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,27 +812,27 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>
-4x32
-AlexNet</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>
 2xfp32
 ResNet18</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>
-2x32
-AlexNet</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="7">
                   <c:v>
 1x4
 AlexNet</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>
+1x1
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>
+4x32
+AlexNet</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>
-1x1
+2x32
 AlexNet</c:v>
                 </c:pt>
               </c:strCache>
@@ -863,19 +863,19 @@
                   <c:v>9.2399999999999949</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>9.9999999999980105E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-0.28000000000000114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2199999999999989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.619999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,27 +947,27 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>
-4x32
-AlexNet</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>
 2xfp32
 ResNet18</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>
-2x32
-AlexNet</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="7">
                   <c:v>
 1x4
 AlexNet</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>
+1x1
+AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>
+4x32
+AlexNet</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>
-1x1
+2x32
 AlexNet</c:v>
                 </c:pt>
               </c:strCache>
@@ -998,12 +998,12 @@
                   <c:v>6.539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.0000000000001137E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.56999999999999318</c:v>
                 </c:pt>
               </c:numCache>
@@ -2332,16 +2332,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2626,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K30:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2641,25 +2641,25 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2676,22 +2676,22 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2718,17 +2718,17 @@
       <c r="I3" s="1">
         <v>87.6</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <f>H3-C3</f>
         <v>-1.519999999999996</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <f>I3-D3</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2753,17 +2753,17 @@
       <c r="I4" s="1">
         <v>76.64</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:K14" si="0">H4-C4</f>
         <v>-0.87999999999999545</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>-1.0600000000000023</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2788,17 +2788,17 @@
       <c r="I5" s="1">
         <v>88.19</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>-0.25999999999999091</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>9.0000000000003411E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2823,17 +2823,17 @@
       <c r="I6" s="1">
         <v>88.06</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>-0.37999999999999545</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>-3.9999999999992042E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2858,17 +2858,17 @@
       <c r="I7" s="1">
         <v>70.39</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>-22.549999999999997</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>-17.709999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2893,17 +2893,17 @@
       <c r="I8" s="1">
         <v>81.56</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>-9.2399999999999949</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>-6.539999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2928,17 +2928,17 @@
       <c r="I9" s="1">
         <v>84.2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>-10.299999999999997</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>-3.2000000000000028</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2963,17 +2963,17 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>-13.619999999999997</v>
       </c>
-      <c r="K10" s="7" t="e">
+      <c r="K10" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2998,17 +2998,17 @@
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>-4.2199999999999989</v>
       </c>
-      <c r="K11" s="7" t="e">
+      <c r="K11" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3035,17 +3035,17 @@
       <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="7" t="e">
+      <c r="J12" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="7" t="e">
+      <c r="K12" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -3070,17 +3070,17 @@
       <c r="I13" s="1">
         <v>80.239999999999995</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>-3.0000000000001137E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -3105,16 +3105,16 @@
       <c r="I14" s="1">
         <v>79.7</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>-0.56999999999999318</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
         <v>55</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
@@ -3140,7 +3140,7 @@
         <f>-D18</f>
         <v>-9.0000000000003411E-2</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I18">
@@ -3150,7 +3150,7 @@
         <v>-9.0000000000003411E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
@@ -3165,10 +3165,10 @@
         <v>0.87999999999999545</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F28" si="2">-D19</f>
+        <f t="shared" ref="F19:F26" si="2">-D19</f>
         <v>1.0600000000000023</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I19">
@@ -3178,7 +3178,7 @@
         <v>1.0600000000000023</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
@@ -3196,7 +3196,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>59</v>
       </c>
       <c r="I20">
@@ -3206,7 +3206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="57" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -3224,7 +3224,7 @@
         <f t="shared" si="2"/>
         <v>3.9999999999992042E-2</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I21">
@@ -3234,7 +3234,7 @@
         <v>3.9999999999992042E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
@@ -3252,7 +3252,7 @@
         <f t="shared" si="2"/>
         <v>17.709999999999994</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="I22">
@@ -3262,7 +3262,7 @@
         <v>17.709999999999994</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" ht="57" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
@@ -3280,7 +3280,7 @@
         <f t="shared" si="2"/>
         <v>6.539999999999992</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>62</v>
       </c>
       <c r="I23">
@@ -3290,7 +3290,7 @@
         <v>6.539999999999992</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
@@ -3308,17 +3308,26 @@
         <f t="shared" si="2"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>10.299999999999997</v>
+      </c>
+      <c r="J24">
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I24">
+      <c r="M24">
         <v>9.9999999999980105E-3</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>3.0000000000001137E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
@@ -3336,17 +3345,14 @@
         <f t="shared" si="2"/>
         <v>3.2000000000000028</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>64</v>
+      <c r="H25" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="I25">
-        <v>10.299999999999997</v>
-      </c>
-      <c r="J25">
-        <v>3.2000000000000028</v>
+        <v>4.2199999999999989</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
@@ -3364,17 +3370,23 @@
         <f t="shared" si="2"/>
         <v>0.56999999999999318</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26">
+        <v>13.619999999999997</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I26">
+      <c r="M26">
         <v>-0.28000000000000114</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <v>0.56999999999999318</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
@@ -3388,14 +3400,17 @@
         <f t="shared" si="1"/>
         <v>4.2199999999999989</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>66</v>
+      <c r="H27" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I27">
-        <v>4.2199999999999989</v>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="J27">
+        <v>3.0000000000001137E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
@@ -3409,11 +3424,14 @@
         <f t="shared" si="1"/>
         <v>13.619999999999997</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>67</v>
+      <c r="H28" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="I28">
-        <v>13.619999999999997</v>
+        <v>-0.28000000000000114</v>
+      </c>
+      <c r="J28">
+        <v>0.56999999999999318</v>
       </c>
     </row>
   </sheetData>
